--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value608.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value608.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5707738516450133</v>
+        <v>1.07099461555481</v>
       </c>
       <c r="B1">
-        <v>0.5259954982835154</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>0.5161767978292735</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.638478863618181</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.9478329689265396</v>
+        <v>1.159129738807678</v>
       </c>
     </row>
   </sheetData>
